--- a/Voter Turnout/Spending.xlsx
+++ b/Voter Turnout/Spending.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\spenc\OneDrive\Documents\GitHub\Scroll\Voter Turnout\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D6F501B-0D35-41BB-BDB7-281CA13CE3E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55A5570C-AF1D-4D71-80FF-9131EBD17CB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{5A722100-AD8A-47CE-8E8F-FD50FE243CBF}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="16">
   <si>
     <t>Date</t>
   </si>
@@ -77,16 +77,7 @@
     <t>Jerry Merrill</t>
   </si>
   <si>
-    <t>Bryanna Johnson</t>
-  </si>
-  <si>
     <t>Mike Glasscock</t>
-  </si>
-  <si>
-    <t>Luke Evans</t>
-  </si>
-  <si>
-    <t>Nathan Martin</t>
   </si>
   <si>
     <t>Brian Thackeray</t>
@@ -447,8 +438,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17AAB386-73E2-4949-80BC-B8565287B7ED}">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -643,7 +634,7 @@
         <v>4</v>
       </c>
       <c r="C14" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D14">
         <v>36</v>
@@ -696,10 +687,10 @@
         <v>13</v>
       </c>
       <c r="C18" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>325.44</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -707,43 +698,43 @@
         <v>14</v>
       </c>
       <c r="C19" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>200</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C20" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>175</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>9.5399999999999991</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C22" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
